--- a/data/trans_bre/P9_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 14,02</t>
+          <t>-4,85; 25,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 11,79</t>
+          <t>-4,82; 25,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 17,64</t>
+          <t>-5,03; 36,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 13,95</t>
+          <t>-4,87; 35,73</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>10,44%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 26,34</t>
+          <t>-9,43; 41,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 23,97</t>
+          <t>-10,5; 42,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 41,31</t>
+          <t>-10,22; 87,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 37,78</t>
+          <t>-11,72; 91,24</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 18,18</t>
+          <t>-3,26; 15,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 22,02</t>
+          <t>-3,09; 15,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 24,54</t>
+          <t>-3,56; 19,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 31,17</t>
+          <t>-3,21; 19,84</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>-3,26%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 1,42</t>
+          <t>-11,17; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 1,18</t>
+          <t>-11,52; 6,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 1,61</t>
+          <t>-12,3; 7,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 1,31</t>
+          <t>-12,54; 7,72</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 10,79</t>
+          <t>-14,12; 17,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 9,55</t>
+          <t>-15,11; 16,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 17,27</t>
+          <t>-18,63; 27,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 14,58</t>
+          <t>-20,02; 26,06</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-21,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-20,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,33%</t>
+          <t>-34,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-33,82%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 5,8</t>
+          <t>-40,7; 0,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 8,48</t>
+          <t>-40,88; 0,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 12,56</t>
+          <t>-58,75; 2,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 18,51</t>
+          <t>-58,41; 1,92</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,14</t>
+          <t>-4,24; 9,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 3,54</t>
+          <t>-4,91; 9,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 5,42</t>
+          <t>-4,98; 12,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,58</t>
+          <t>-5,89; 12,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,1%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.800661200318293</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.736654614251481</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.09102914031440711</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.08978172661315803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 25,26</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 25,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 36,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 35,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.85232381407852</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.558058386504456</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.05029000680513131</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.04401422002929547</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.2620001229833</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.30685535635695</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3602243863938364</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3586659720552771</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 41,81</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 42,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 87,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,72; 91,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.422329878694313</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.683509461483915</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1090665505224877</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.0710975024460602</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,12%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.434478468681503</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.18301970913422</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1021977673649264</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1225866907107681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 15,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 15,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,56; 19,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 19,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>41.80959425861822</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>40.44955295919734</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8723978860809518</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.822182963110476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,26%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.556286338595106</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.659360019073077</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.05117056836118709</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.04056335756023662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; 6,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 6,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 7,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,54; 7,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.264440902324768</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.675571696924059</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.03555023543012764</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.03836553424303719</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.37646693267395</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.13472286197001</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1907501012053066</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1595598549632777</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 17,37</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,11; 16,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-18,63; 27,31</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; 26,06</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.653076515467623</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.460525037615369</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02958354544382304</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02738697275740609</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-21,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-20,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-34,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-33,82%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.17158899031234</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.10235068365274</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1230153964755223</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1196447828795316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-40,7; 0,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 0,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-58,75; 2,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-58,41; 1,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.870443542717239</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.823593801397496</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.07785729036480654</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.08027018170121476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.782068164949979</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.269879310189237</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.02528138422999342</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.01797059912161639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 9,19</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 9,25</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 12,97</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 12,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.1236619437494</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.52756249151987</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.1862972706429262</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1963808711543925</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.37079893848798</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.62720604349346</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.27311790943078</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.2662256250286587</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-21.15237645262014</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-22.16922327752116</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3430017576230468</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.350002539511692</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-40.69831060991883</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-41.52661979116874</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5875142241575002</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.5874309551468807</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.5189267137205359</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-0.08248374559571219</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02666336045177487</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.001140413093787539</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.853035888315002</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.329491833032959</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.02317024154665197</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.01639826013924811</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.241486167680971</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.745352024557202</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.04982351523647535</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.05600531174074089</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.189027946617104</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.81902825417065</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.1296635463905482</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.1192664131198345</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
